--- a/FSD BİLİSİM_İS.xlsx
+++ b/FSD BİLİSİM_İS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="5460" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="5460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FİRMALAR" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="297">
   <si>
     <t>URL</t>
   </si>
@@ -993,6 +993,12 @@
   <si>
     <t xml:space="preserve">u7420140_LensF
 </t>
+  </si>
+  <si>
+    <t>http://zeytinfidanmerkezi.com/</t>
+  </si>
+  <si>
+    <t>ce.sami.demir@gmail.com Müşteri Numarası: 203929003</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1608,8 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2606,18 +2612,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
@@ -3283,6 +3289,26 @@
       </c>
       <c r="F26" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3318,9 +3344,11 @@
     <hyperlink ref="B23" r:id="rId29"/>
     <hyperlink ref="B25" r:id="rId30"/>
     <hyperlink ref="B26" r:id="rId31"/>
+    <hyperlink ref="E27" r:id="rId32"/>
+    <hyperlink ref="B27" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -3328,7 +3356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
